--- a/Target 1 minggu Proyek 3 Kelompok B2.xlsx
+++ b/Target 1 minggu Proyek 3 Kelompok B2.xlsx
@@ -87,13 +87,13 @@
     <t xml:space="preserve">Achmad Fadhitya M, Cecep sutisna, </t>
   </si>
   <si>
-    <t>Fauzi Nur Noviansyah, Nurta Salam</t>
-  </si>
-  <si>
     <t>Achmad Fadhitya M</t>
   </si>
   <si>
     <t>Muhammad Zaid A, Nino Maryono</t>
+  </si>
+  <si>
+    <t>Fauzi Nur Noviansyah, Nurta Salam, Dhika Bagus D</t>
   </si>
 </sst>
 </file>
@@ -498,50 +498,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -556,12 +520,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,23 +530,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -602,6 +548,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -611,7 +570,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,12 +628,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,7 +947,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,284 +959,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="27">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="15">
         <v>13</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="12">
         <v>14</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="12">
         <v>15</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="9">
         <v>16</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="9">
         <v>17</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="12">
         <v>18</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="13">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="44"/>
+      <c r="C5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="28"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="15"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="44"/>
+      <c r="C8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="20"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="14"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="44"/>
+      <c r="C13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="28"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="H11:H12"/>
@@ -1246,13 +1253,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
